--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="193">
   <si>
     <t>今天晚上和小明去看电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,15 +79,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程整理（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程更新，新建，删除（远程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询（日程，参与人）</t>
+    <t>第三方调用后播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换参数后播报（本地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置（4个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他数据方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我明天有空吗？我明天有什么安排？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询后新建 需要确认（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日历 需要确认（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天去南京开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后天开始跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日历带有参与人 需要确认（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询后修改 需要确认（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和小明明天的约会推迟到晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询后删除 需要确认（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问URL获取数据，修改数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地数据，URL通知服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,47 +163,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闹铃设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方接口或技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方调用后播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换参数后播报（本地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接消息内播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置（4个）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹铃设置无日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹铃设置关联日程</t>
+    <t>播报当前内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上6点半设置一个闹铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后操作，使用上次结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,130 +187,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程修改（获取上下文中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他数据方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒收朋友消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我明天有空吗？我明天有什么安排？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询后新建 需要确认（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建日历 需要确认（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天去南京开会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后天开始跑步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建日历带有参与人 需要确认（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询后修改 需要确认（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我和小明明天的约会推迟到晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询后删除 需要确认（保存上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消明天我和小明的约会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动接受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问URL获取数据，修改数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除本地数据，URL通知服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播报当前内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上6点半设置一个闹铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后操作，使用上次结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>讲个笑话吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明天天气好吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科大讯飞的股票价格？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,42 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量（日程数量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人查询（根据拼音查询传入下步操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程对象（日程ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程对象，日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上下文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,42 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处理参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S.P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>an:string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,68 +255,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list&lt;object&gt;(日程对象)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间，主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PROCESS.TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F.F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F.C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;object&gt;(参与人)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;object&gt;(参与人,未处理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期，时间，主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否处理完成（boolean）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理后参与人list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">处理后日程对象list
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被分享日程更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SH.U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH.D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,89 +278,733 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SS.C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS.U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS.D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时候检查
+   是否被共享(提示不能修改)
+   是否重复日程提醒（提示更新今天，还是以后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查日程缺失项目
+   检查内容（日期，时间，主题）（提示缺少元素）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上下文内容操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建，修改，删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY.B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC.T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否处理完成
+boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id:string,
+n:string,
+m:string,
+p:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期，开始时间，
+结束日期，结束时间，
+主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理后参与人list
+[{
+id:string,
+n:string,
+m:string,
+p:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日程对象list
+[{
+id:string,
+d:string,
+t:string,
+ti:string
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程对象list
+[{
+id:string,
+d:string,
+t:string,
+ti:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id:string,
+d:string,
+t:string,
+ti:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id:string,
+n:string,
+m:string,
+p:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人（群组）名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人ID
+拼音，
+手机，
+名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程对象（上下文中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k:string
+v:boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置类型
+设置值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否处理完成
+boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+d:string
+t:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日程对象list
+[{
+id:string,
+d:string,
+t:string,
+ti:string
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追问(时间，主题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+d:string,
+t:string,
+ti:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置上下文数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除上下文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理内部调用语音
 检查通过后，播报操作语音；
 失败后，提示缺失项目
-并保存上下文中，等待指令操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时候检查
-   是否被共享(提示不能修改)
-   是否重复日程提醒（提示更新今天，还是以后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查日程缺失项目
-   检查内容（日期，时间，主题）（提示缺少元素）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取上下文内容操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建，修改，删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY.S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R.N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R.C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC.T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+并保存上下文中（包括处理Type），等待指令操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行上下文操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天天气好吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排小明明天8点去客户公司开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天早上的会议提前1个小时提醒我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我明天有空吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消明天我和小明的约会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消明天我和小明的约会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="我明天有空吗"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(server)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(处理后)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID
+日程主题
+日程时间
+日程日期
+（list）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[{
+id:string,
+d:string,
+t:string,
+ti:string
+}]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参与人ID
+拼音，
+手机，
+名称
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人ID
+拼音，
+手机，
+名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID
+日程主题
+日程时间
+日程日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人ID
+拼音，
+手机，
+名称（上下文中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题
+日程时间
+日程日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+t:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+an
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+n:string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="收到一条新的共享日程，来自XXX"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到共享日历（新建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程更新，新建，删除（被分享）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id：string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022293";
+  describe:Array&lt;string&gt;=["F","S"];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context:{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:{
+SH:{option：string="SH.C",
+parmeter:{
+id：string="1111111"
+}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022294";
+  describe:Array&lt;string&gt;=[SH];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="明天早上的会议提前1个小时提醒我"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播报类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（默认执行，不需要标识）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022295";
+  describe:Array&lt;string&gt;=["F","R"];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期
+时间
+相对时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="安排小明明天8点去客户公司开会"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022295";
+  describe:Array&lt;string&gt;=["F","SS"];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲一个笑话吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS.C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+id:string,
+d:string,
+t:string,
+ti:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去北京看升旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去北京看升旗（重复/年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="取消明天我和小明的约会"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS.D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="确认"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022295";
+  describe:Array&lt;string&gt;=["O"];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content:{
+O：{option：string="O.O",
+parmeter:{}
+}}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header:{
+  version:string = "V1.0";
+  sender:string = "xxx-xxx";
+  datetime:string="20192022295";
+  describe:Array&lt;string&gt;=["S"];
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original:string="讲一个笑话吧"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content:{
+S：{option：string="S.AN",
+parmeter:{
+an:string="拉拉拉"
+}
+}}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接消息内播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人查询（根据拼音查询传入下步操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS.U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH.D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程修改（获取上下文中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询（日程，参与人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒收朋友消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹铃设置无日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹铃设置关联日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹铃设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方接口或技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+d:string
+t:string
+s:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ds:string,
+ts:string,
+de:string,
+te:string,
+ti:string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程整理（保存上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context:{
+SH.U{
+scd:{
+id:string,d:string,t:string,ti:string
+},
+fs:[{
+id:string,n:string,m:string,p:string
+}]
+}}</t>
+  </si>
+  <si>
+    <t>content:{
+F：{option：string="F.C",
+parmeter:{
+scd:[{
+ds:string="2019/03/14",ts:string="",dn:string="",dn:string="",ti:string=""}],
+fs:[{
+n:string=""
+}]}
+S:{option：string="S.P",
+parmeter:{
+an:string=""
+t:string="SSS"
+}}}</t>
+  </si>
+  <si>
+    <t>content:{
+F：{option：string="F.C",
+parmeter:{
+scd:[{
+ds:string="2019/03/14",ts:string="06：00",de:string="2019/03/14",te:string="12：00",ti:string="会议"}],
+fs:[{
+n:string=""
+}]}
+R:{option：string="R.C",
+parmeter:{
+d:string="",
+t:string="",
+s:string="-1"
+}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content:{
+F：{option：string="F.C",
+parmeter:{
+scd:[{
+ds:string="",ts:string="",de:string="",te:string="",ti:string=""}],
+fs:[{
+n:string="xiaoming"
+}]}
+SS:{option：string="SS.C",
+parmeter:{
+id:string,="",d:string="2019/03/14",t:string="08:00",ti:string="客户公司开会"
+}}}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content:{
+F：{option：string="F.C",
+parmeter:{
+scd:[{
+ds:string="2019/03/14",ts:string="",de:string="2019/03/14",te:string="",ti:string="约会"}],
+fs:[{
+n:string="xiaoming"
+}]}
+SS:{option：string="SS.D",
+parmeter:{
+}}}
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,8 +1085,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +1118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,20 +1213,134 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,74 +1351,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,10 +1699,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="82" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15">
+      <c r="B2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="214.5">
+      <c r="B3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="99">
+      <c r="B4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="247.5">
+      <c r="B5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="216" customHeight="1">
+      <c r="B6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="214.5">
+      <c r="B7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="139.5" customHeight="1">
+      <c r="B8" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="115.5">
+      <c r="B9" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1158,7 +1897,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1181,7 +1920,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1212,7 +1951,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1220,7 +1959,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1228,7 +1967,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1245,7 +1984,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1270,7 +2009,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1279,7 +2018,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1296,7 +2035,7 @@
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1305,7 +2044,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1331,7 +2070,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1352,10 +2091,10 @@
     <row r="26" spans="1:6">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1363,10 +2102,10 @@
     <row r="27" spans="1:6">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1381,7 +2120,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -1392,7 +2131,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1410,7 +2149,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1434,7 +2173,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
@@ -1454,7 +2193,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1464,7 +2203,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
@@ -1475,7 +2214,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1484,7 +2223,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1501,7 +2240,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1510,7 +2249,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1519,7 +2258,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1528,7 +2267,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1546,7 +2285,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1555,7 +2294,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1587,7 +2326,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1596,7 +2335,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1608,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1619,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1657,12 +2396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1670,464 +2409,646 @@
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="4" max="4" width="46.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="2:12" ht="84">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="2:12" ht="84">
+      <c r="B6" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="72">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="98.25" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="2:12" ht="72">
+      <c r="B9" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="72">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="36">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="2:12" ht="72">
+      <c r="B13" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" ht="72">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="78" customHeight="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="2:10" ht="78" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B18" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="77.25" customHeight="1">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F19" s="14"/>
+      <c r="H19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="48">
+      <c r="B20" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="96">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="60">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="15" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="2:10" ht="60">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:11" ht="24">
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:11" ht="36">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="36">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="J27" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="46">
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H7:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="8:10">
+      <c r="H7" s="35">
+        <v>43009</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8" s="35">
+        <v>43374</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" s="35">
+        <v>43739</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\git\GTD2-dev\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="2"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
   <si>
     <t>今天晚上和小明去看电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,12 +349,6 @@
 m:string,
 p:string
 }]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期，开始时间，
-结束日期，结束时间，
-主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与人（群组）名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与人ID
 拼音，
 手机，
@@ -417,26 +412,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>k:string
 v:boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置类型
-设置值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否处理完成
 boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数(server)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数(处理后)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,18 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程主题
-日程时间
-日程日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-t:string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 an
 }</t>
@@ -707,12 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期
-时间
-相对时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>original:string="安排小明明天8点去客户公司开会"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,14 +737,6 @@
   datetime:string="20192022295";
   describe:Array&lt;string&gt;=["O"];
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">content:{
-O：{option：string="O.O",
-parmeter:{}
-}}
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,13 +950,82 @@
 parmeter:{
 }}}
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人（群组）名称拼音
+fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期，开始时间，
+结束日期，结束时间，
+主题
+scd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID
+日程主题
+日程时间
+日程日期
+scd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置类型
+设置值
+ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间
+dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期
+时间
+相对时间
+dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题
+日程时间
+日程日期
+scd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+t:string
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(server)
+parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content:{
+O：{option：string="O.O",
+parmeter:{}
+}}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,107 +1324,110 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,6 +1435,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1457,7 +1489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1489,9 +1521,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,6 +1556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1698,14 +1732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
@@ -1715,16 +1749,16 @@
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.15">
       <c r="B2" s="34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>58</v>
@@ -1734,128 +1768,128 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="214.5">
+    <row r="3" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="99">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="99" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="247.5">
+    </row>
+    <row r="5" spans="2:9" ht="247.5" x14ac:dyDescent="0.15">
       <c r="B5" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="29" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="216" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="214.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="139.5" customHeight="1">
-      <c r="B8" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="F8" s="29" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="115.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B9" s="28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1865,14 +1899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
@@ -1880,13 +1914,13 @@
     <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -1895,7 +1929,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1903,7 +1937,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1911,13 +1945,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1926,7 +1960,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1968,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1942,13 +1976,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1957,7 +1991,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +1999,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1974,14 +2008,14 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1991,7 +2025,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2000,14 +2034,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2050,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2025,14 +2059,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -2042,23 +2076,23 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -2068,7 +2102,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2077,7 +2111,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -2088,7 +2122,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -2099,7 +2133,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>33</v>
@@ -2110,14 +2144,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -2129,7 +2163,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2138,7 +2172,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -2147,7 +2181,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2156,21 +2190,21 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -2182,7 +2216,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2225,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2200,7 +2234,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>39</v>
@@ -2212,7 +2246,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2255,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2230,14 +2264,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
@@ -2247,7 +2281,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2256,16 +2290,16 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2308,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2317,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2292,7 +2326,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2301,7 +2335,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2310,21 +2344,21 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -2333,7 +2367,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2342,7 +2376,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2353,7 +2387,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>2</v>
       </c>
@@ -2364,7 +2398,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>3</v>
       </c>
@@ -2375,14 +2409,14 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2397,14 +2431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
@@ -2421,7 +2455,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
@@ -2437,11 +2471,11 @@
       <c r="F2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>113</v>
+      <c r="G2" s="70" t="s">
+        <v>192</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -2452,15 +2486,15 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>158</v>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>56</v>
@@ -2473,286 +2507,286 @@
       <c r="I3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="58"/>
       <c r="G4" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="2:12" ht="84">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="31"/>
       <c r="H5" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="2:12" ht="84">
-      <c r="B6" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="2:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="B6" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="72">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="43"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="58"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="98.25" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="44"/>
+      <c r="J7" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="13" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="2:12" ht="72">
-      <c r="B9" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B9" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>99</v>
+      <c r="E9" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>94</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="18" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:12" ht="72">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="57"/>
+    <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="36">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="J10" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+        <v>158</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F12" s="67"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="2:12" ht="72">
-      <c r="B13" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="41" t="s">
+      <c r="G12" s="43"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B13" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="48" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>87</v>
+      <c r="G13" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="60"/>
-    </row>
-    <row r="14" spans="2:12" ht="72">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="69" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="38"/>
+      <c r="G15" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="51"/>
       <c r="I15" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="78" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+        <v>122</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="39"/>
+        <v>123</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="65"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="2:10" ht="78" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B18" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>174</v>
+        <v>159</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -2762,164 +2796,164 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="77.25" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
       <c r="H19" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>78</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="48">
-      <c r="B20" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B20" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="9" t="s">
-        <v>92</v>
+      <c r="G20" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="96">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="96" x14ac:dyDescent="0.15">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="9"/>
       <c r="H21" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="60">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="44"/>
+        <v>89</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="13" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="J23" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="2:10" ht="60">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>184</v>
+        <v>91</v>
+      </c>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>19</v>
@@ -2931,9 +2965,9 @@
       <c r="I26" s="17"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" ht="36">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2944,26 +2978,32 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="23" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
@@ -2980,24 +3020,18 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J10:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,45 +3040,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:10">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H7" s="35">
         <v>43009</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H8" s="35">
         <v>43374</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H9" s="35">
         <v>43739</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\git\GTD2-dev\A-开发相关文档素材\6.二期文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="2"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="197">
   <si>
     <t>今天晚上和小明去看电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,10 +306,6 @@
   </si>
   <si>
     <t>SY.B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R.N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1020,12 +1011,28 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R.N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问候语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,104 +1337,104 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1521,10 +1528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,7 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1732,14 +1737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
@@ -1749,16 +1754,16 @@
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>58</v>
@@ -1768,128 +1773,128 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="214.5">
       <c r="B3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="99" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:9" ht="99">
       <c r="B4" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="247.5" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="247.5">
       <c r="B5" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="216" customHeight="1">
       <c r="B6" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="214.5">
       <c r="B7" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="139.5" customHeight="1">
+      <c r="B8" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="115.5">
+      <c r="B9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="D9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>151</v>
-      </c>
       <c r="G9" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1899,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
@@ -1914,13 +1919,13 @@
     <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -1929,7 +1934,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1942,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,13 +1950,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1960,7 +1965,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1973,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,13 +1981,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1991,7 +1996,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +2004,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2008,14 +2013,14 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2025,7 +2030,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2034,14 +2039,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2050,7 +2055,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2059,14 +2064,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -2076,23 +2081,23 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -2102,7 +2107,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2116,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -2122,7 +2127,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -2133,7 +2138,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>33</v>
@@ -2144,14 +2149,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -2163,7 +2168,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2172,7 +2177,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -2181,7 +2186,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2190,21 +2195,21 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -2216,7 +2221,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2230,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2234,7 +2239,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>39</v>
@@ -2246,7 +2251,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2255,7 +2260,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2264,14 +2269,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
@@ -2281,7 +2286,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2290,16 +2295,16 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2308,7 +2313,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2317,7 +2322,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2326,7 +2331,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2335,7 +2340,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2344,21 +2349,21 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2372,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2376,7 +2381,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2387,7 +2392,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="5">
         <v>2</v>
       </c>
@@ -2398,7 +2403,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="5">
         <v>3</v>
       </c>
@@ -2409,14 +2414,14 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2431,14 +2436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
@@ -2455,7 +2460,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="24">
       <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
@@ -2471,11 +2476,11 @@
       <c r="F2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="70" t="s">
-        <v>192</v>
+      <c r="G2" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -2486,15 +2491,15 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>148</v>
+    <row r="3" spans="2:12">
+      <c r="B3" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>56</v>
@@ -2507,286 +2512,286 @@
       <c r="I3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51" t="s">
+      <c r="J3" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="58"/>
+      <c r="E4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="43"/>
       <c r="G4" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="2:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="2:12" ht="84">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="31"/>
       <c r="H5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="2:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="B6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>103</v>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="2:12" ht="84">
+      <c r="B6" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>156</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="72">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="58"/>
+        <v>153</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="43"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="98.25" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="2:12" ht="72">
+      <c r="B9" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B9" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="C9" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>94</v>
+      <c r="E9" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="62"/>
+    <row r="10" spans="2:12" ht="72">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+        <v>77</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="36">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+        <v>157</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="68"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B13" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="2:12" ht="72">
+      <c r="B13" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="63"/>
+        <v>81</v>
+      </c>
+      <c r="J13" s="68"/>
+    </row>
+    <row r="14" spans="2:12" ht="72">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="53" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+        <v>185</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="78" customHeight="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="2:10" ht="78" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B18" s="41" t="s">
         <v>164</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -2796,164 +2801,164 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+    </row>
+    <row r="19" spans="2:10" ht="77.25" customHeight="1">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
       <c r="H19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="48" x14ac:dyDescent="0.15">
-      <c r="B20" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>133</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="48">
+      <c r="B20" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="96" x14ac:dyDescent="0.15">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="58"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="96">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="43"/>
       <c r="G21" s="9"/>
       <c r="H21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="59"/>
+        <v>88</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="60">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>146</v>
+        <v>174</v>
+      </c>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="J23" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="55"/>
-    </row>
-    <row r="25" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="2:10" ht="60">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>19</v>
@@ -2965,9 +2970,9 @@
       <c r="I26" s="17"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+    <row r="27" spans="2:10" ht="36">
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2978,32 +2983,41 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
@@ -3020,18 +3034,24 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,45 +3060,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="8:10">
       <c r="H7" s="35">
         <v>43009</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
       <c r="H8" s="35">
         <v>43374</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
       <c r="H9" s="35">
         <v>43739</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -758,10 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S.P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直接消息内播报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1025,6 +1021,10 @@
   </si>
   <si>
     <t>查询数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +1785,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>124</v>
@@ -1821,7 +1821,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>124</v>
@@ -1839,7 +1839,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>124</v>
@@ -1857,7 +1857,7 @@
         <v>142</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>124</v>
@@ -1874,10 +1874,10 @@
         <v>144</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="115.5">
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2477,7 +2477,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>107</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>56</v>
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="10" t="s">
@@ -2552,22 +2552,22 @@
     </row>
     <row r="6" spans="2:12" ht="84">
       <c r="B6" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>155</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>131</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
@@ -2581,7 +2581,7 @@
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>106</v>
@@ -2605,20 +2605,20 @@
       <c r="E8" s="42"/>
       <c r="F8" s="44"/>
       <c r="G8" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="49"/>
     </row>
     <row r="9" spans="2:12" ht="72">
       <c r="B9" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>66</v>
@@ -2630,7 +2630,7 @@
         <v>93</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="18" t="s">
@@ -2662,7 +2662,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="69"/>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="13" spans="2:12" ht="72">
       <c r="B13" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>54</v>
@@ -2746,7 +2746,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="56" t="s">
@@ -2775,10 +2775,10 @@
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="52"/>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="18" spans="2:10" ht="36.75" customHeight="1">
       <c r="B18" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="18" t="s">
@@ -2815,7 +2815,7 @@
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>70</v>
@@ -2833,20 +2833,20 @@
     </row>
     <row r="20" spans="2:10" ht="48">
       <c r="B20" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>132</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
@@ -2860,7 +2860,7 @@
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>71</v>
@@ -2884,23 +2884,23 @@
       <c r="E22" s="42"/>
       <c r="F22" s="44"/>
       <c r="G22" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J22" s="49"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>72</v>
@@ -2919,7 +2919,7 @@
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>73</v>
@@ -2945,7 +2945,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="23" t="s">
@@ -2955,10 +2955,10 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>173</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>19</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>114</v>
@@ -2991,17 +2991,17 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\git\GTD2-dev\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="222">
   <si>
     <t>今天晚上和小明去看电影</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,12 +1105,48 @@
     <t>GG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建/更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK.U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端接收消息
+没有语音提示
+不需要本地消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID
+标签
+标记类型（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+id: string,
+mkl: string,
+mkt: string
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注日程语义标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,16 +1454,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1431,82 +1532,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,7 +1628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,9 +1660,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1635,6 +1695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1810,14 +1871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
@@ -1827,7 +1888,7 @@
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.15">
       <c r="B2" s="34" t="s">
         <v>95</v>
       </c>
@@ -1846,7 +1907,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="214.5">
+    <row r="3" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
         <v>99</v>
       </c>
@@ -1864,7 +1925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="99">
+    <row r="4" spans="2:9" ht="99" x14ac:dyDescent="0.15">
       <c r="B4" s="28" t="s">
         <v>118</v>
       </c>
@@ -1882,7 +1943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="247.5">
+    <row r="5" spans="2:9" ht="247.5" x14ac:dyDescent="0.15">
       <c r="B5" s="28" t="s">
         <v>98</v>
       </c>
@@ -1900,7 +1961,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="216" customHeight="1">
+    <row r="6" spans="2:9" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -1918,7 +1979,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="214.5">
+    <row r="7" spans="2:9" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>101</v>
       </c>
@@ -1936,7 +1997,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="139.5" customHeight="1">
+    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
         <v>130</v>
       </c>
@@ -1953,7 +2014,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="115.5">
+    <row r="9" spans="2:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B9" s="28" t="s">
         <v>136</v>
       </c>
@@ -1977,14 +2038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
@@ -1992,13 +2053,13 @@
     <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -2007,7 +2068,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2015,7 +2076,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2023,13 +2084,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -2038,7 +2099,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2107,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2054,13 +2115,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -2069,7 +2130,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2138,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2086,14 +2147,14 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2103,7 +2164,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2112,14 +2173,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2128,7 +2189,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2137,14 +2198,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -2154,7 +2215,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>100</v>
       </c>
@@ -2163,14 +2224,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -2180,7 +2241,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +2250,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -2200,7 +2261,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>31</v>
@@ -2211,7 +2272,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>33</v>
@@ -2222,14 +2283,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -2241,7 +2302,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +2311,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -2259,7 +2320,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2268,21 +2329,21 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>18</v>
@@ -2294,7 +2355,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2303,7 +2364,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2312,7 +2373,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>39</v>
@@ -2324,7 +2385,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2333,7 +2394,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2342,14 +2403,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
@@ -2359,7 +2420,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2368,7 +2429,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
@@ -2377,7 +2438,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2386,7 +2447,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2456,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2465,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2474,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2422,21 +2483,21 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -2445,7 +2506,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2515,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -2465,7 +2526,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>2</v>
       </c>
@@ -2476,7 +2537,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>3</v>
       </c>
@@ -2487,14 +2548,14 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2509,14 +2570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
@@ -2533,7 +2594,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="24">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
@@ -2564,11 +2625,11 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="53" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2585,20 +2646,20 @@
       <c r="I3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="39" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="10" t="s">
         <v>128</v>
       </c>
@@ -2606,14 +2667,14 @@
       <c r="I4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="2:12" ht="84">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="2:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="31"/>
       <c r="H5" s="13" t="s">
         <v>108</v>
@@ -2621,13 +2682,13 @@
       <c r="I5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="2:12" ht="84">
-      <c r="B6" s="41" t="s">
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="2:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="B6" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2650,16 +2711,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="72">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50" t="s">
+    <row r="7" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
         <v>110</v>
@@ -2667,16 +2728,16 @@
       <c r="I7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="98.25" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="44"/>
+    <row r="8" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="13" t="s">
         <v>180</v>
       </c>
@@ -2684,22 +2745,22 @@
       <c r="I8" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="2:12" ht="72">
-      <c r="B9" s="41" t="s">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B9" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="66" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -2711,12 +2772,12 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:12" ht="72">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="54"/>
+    <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
         <v>111</v>
@@ -2724,58 +2785,58 @@
       <c r="I10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="36">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+    <row r="11" spans="2:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="68"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="2:12" ht="72">
-      <c r="B13" s="41" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B13" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="71" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -2785,14 +2846,14 @@
       <c r="I13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="2:12" ht="72">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="55"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="2:12" ht="72" x14ac:dyDescent="0.15">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="37" t="s">
         <v>113</v>
       </c>
@@ -2800,13 +2861,13 @@
       <c r="I14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="41" t="s">
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="53" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -2815,373 +2876,375 @@
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="56" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="78" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+    <row r="16" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="2:10" ht="78" customHeight="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B18" s="41" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C19" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="18" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="77.25" customHeight="1">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="H19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="48">
-      <c r="B20" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>132</v>
-      </c>
+    <row r="20" spans="2:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="96">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="67" t="s">
+    <row r="21" spans="2:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B21" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="96" x14ac:dyDescent="0.15">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="13" t="s">
+      <c r="F22" s="63"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J22" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="60">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="13" t="s">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="18" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="64" t="s">
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C24" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" spans="2:10" ht="60">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="J24" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="60"/>
+    </row>
+    <row r="26" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="23" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="64" t="s">
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C27" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="2:10" ht="36">
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="23" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J28" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>209</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>197</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
         <v>199</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
         <v>201</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
         <v>203</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
         <v>204</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>207</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>210</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>214</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="I15:I17"/>
@@ -3190,11 +3253,34 @@
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J10:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3203,21 +3289,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:10">
+    <row r="7" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H7" s="35">
         <v>43009</v>
       </c>
@@ -3225,7 +3311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H8" s="35">
         <v>43374</v>
       </c>
@@ -3233,7 +3319,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="8:10">
+    <row r="9" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H9" s="35">
         <v>43739</v>
       </c>
@@ -3251,24 +3337,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>195</v>
       </c>
@@ -3276,7 +3362,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>209</v>
       </c>
@@ -3284,7 +3370,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>197</v>
       </c>
@@ -3292,7 +3378,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>199</v>
       </c>
@@ -3300,7 +3386,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>201</v>
       </c>
@@ -3308,7 +3394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>203</v>
       </c>
@@ -3316,7 +3402,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>204</v>
       </c>
@@ -3324,7 +3410,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>207</v>
       </c>
@@ -3332,7 +3418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>210</v>
       </c>
@@ -3340,7 +3426,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>214</v>
       </c>

--- a/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音处理实例.xlsx
@@ -1124,12 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程ID
-标签
-标记类型（可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{
 id: string,
 mkl: string,
@@ -1139,6 +1133,13 @@
   </si>
   <si>
     <t>标注日程语义标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID
+标签
+标记类型（可选）
+mks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1466,106 +1467,106 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2573,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2626,10 +2627,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -2646,20 +2647,20 @@
       <c r="I3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="10" t="s">
         <v>128</v>
       </c>
@@ -2667,14 +2668,14 @@
       <c r="I4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="2:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="31"/>
       <c r="H5" s="13" t="s">
         <v>108</v>
@@ -2682,13 +2683,13 @@
       <c r="I5" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="2:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2712,15 +2713,15 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
         <v>110</v>
@@ -2728,16 +2729,16 @@
       <c r="I7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="13" t="s">
         <v>180</v>
       </c>
@@ -2745,22 +2746,22 @@
       <c r="I8" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="59" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -2773,11 +2774,11 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="9"/>
       <c r="H10" s="13" t="s">
         <v>111</v>
@@ -2785,58 +2786,58 @@
       <c r="I10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="43" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="45"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="66" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -2846,14 +2847,14 @@
       <c r="I13" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="2:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="37" t="s">
         <v>113</v>
       </c>
@@ -2861,13 +2862,13 @@
       <c r="I14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="47" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -2876,53 +2877,53 @@
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="69" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="44"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="46"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>215</v>
@@ -2936,20 +2937,20 @@
       <c r="F18" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="76" t="s">
-        <v>220</v>
-      </c>
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="47" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2971,8 +2972,8 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="9" t="s">
         <v>162</v>
       </c>
@@ -2991,10 +2992,10 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="48" x14ac:dyDescent="0.15">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="47" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3016,15 +3017,15 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="96" x14ac:dyDescent="0.15">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="58" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="9"/>
       <c r="H22" s="13" t="s">
         <v>112</v>
@@ -3032,16 +3033,16 @@
       <c r="I22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="64"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="13" t="s">
         <v>185</v>
       </c>
@@ -3049,13 +3050,13 @@
       <c r="I23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="70" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -3070,13 +3071,13 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="11" t="s">
         <v>167</v>
       </c>
@@ -3089,11 +3090,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="60"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="2:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="11" t="s">
         <v>89</v>
       </c>
@@ -3110,13 +3111,13 @@
       <c r="I26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="70" t="s">
         <v>170</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -3130,8 +3131,8 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="11" t="s">
         <v>20</v>
       </c>
@@ -3235,24 +3236,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
@@ -3269,18 +3264,24 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
